--- a/calcs/dynamo_calibration.xlsx
+++ b/calcs/dynamo_calibration.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swm11/Projects/pico/calcs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swm11/Projects/pico/cyclecomputer/calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBF973D-E2CF-BC4D-A15E-F16345DB5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E177B0FA-D048-2847-BCA0-475FD6C12621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35200" yWindow="6480" windowWidth="28040" windowHeight="17440" xr2:uid="{CEDAAA0C-1C27-1A41-82E9-3F55583468C9}"/>
+    <workbookView xWindow="11820" yWindow="8740" windowWidth="28040" windowHeight="17440" xr2:uid="{CEDAAA0C-1C27-1A41-82E9-3F55583468C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Distance" sheetId="1" r:id="rId1"/>
+    <sheet name="Power" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>dist</t>
   </si>
@@ -84,6 +85,45 @@
   </si>
   <si>
     <t>m - looked up value</t>
+  </si>
+  <si>
+    <t>dynamo V</t>
+  </si>
+  <si>
+    <t>dynamo A</t>
+  </si>
+  <si>
+    <t>charge/h</t>
+  </si>
+  <si>
+    <t>charge/10min</t>
+  </si>
+  <si>
+    <t>bat Ah</t>
+  </si>
+  <si>
+    <t>bat V</t>
+  </si>
+  <si>
+    <t>bat capacity</t>
+  </si>
+  <si>
+    <t>10 min charge</t>
+  </si>
+  <si>
+    <t>pulses in 1km</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>dist for 2^31 pulses</t>
+  </si>
+  <si>
+    <t>miles</t>
   </si>
 </sst>
 </file>
@@ -119,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,13 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4354A7E8-D78E-764A-A7FC-DA58F44FAC04}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -567,13 +612,138 @@
         <v>12.999098360655736</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
         <f>B13/13</f>
         <v>0.1546153846153846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <f>1000/B18</f>
+        <v>6467.6616915422892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <f>2^31*B18</f>
+        <v>332034010.1907692</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f>B21/1000</f>
+        <v>332034.01019076922</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>B22/1.6</f>
+        <v>207521.25636923074</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8442615-CF34-8948-B019-898D16D03641}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>B1*B2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f>B4/10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <f>B8*B7</f>
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B5/B9</f>
+        <v>3.071253071253071E-2</v>
       </c>
     </row>
   </sheetData>
